--- a/REGULAR/TREASURY/UNTALAN, DIVINA R..xlsx
+++ b/REGULAR/TREASURY/UNTALAN, DIVINA R..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400CD9B-457C-443D-BEB6-44A6CE1D4E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -300,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -941,7 +940,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -987,25 +985,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1312,34 +1310,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="M30" sqref="M30"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1384,7 +1382,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1402,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1412,7 +1410,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1425,7 +1423,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1442,7 +1440,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1486,7 +1484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>183.06100000000001</v>
+        <v>183.31100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1496,12 +1494,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>228.209</v>
+        <v>229.459</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1521,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1547,7 +1545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1567,7 +1565,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1587,7 +1585,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>51</v>
@@ -1635,7 +1633,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
@@ -1655,7 +1653,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1681,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>53</v>
@@ -1705,7 +1703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -1725,7 +1723,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43313</v>
       </c>
@@ -1745,7 +1743,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43344</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43374</v>
       </c>
@@ -1797,7 +1795,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43405</v>
       </c>
@@ -1817,7 +1815,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43435</v>
       </c>
@@ -1841,7 +1839,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>60</v>
       </c>
@@ -1859,7 +1857,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43466</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43497</v>
       </c>
@@ -1909,7 +1907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43525</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43556</v>
       </c>
@@ -1955,7 +1953,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43586</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>43713</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -2003,7 +2001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -2023,7 +2021,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -2043,7 +2041,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -2095,7 +2093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -2119,7 +2117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>67</v>
@@ -2143,7 +2141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>70</v>
@@ -2165,7 +2163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -2185,7 +2183,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>72</v>
       </c>
@@ -2203,7 +2201,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43831</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -2247,7 +2245,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43891</v>
       </c>
@@ -2267,7 +2265,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43922</v>
       </c>
@@ -2287,7 +2285,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43952</v>
       </c>
@@ -2311,7 +2309,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43983</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44013</v>
       </c>
@@ -2359,7 +2357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -2379,7 +2377,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -2399,7 +2397,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -2419,7 +2417,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -2439,7 +2437,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -2463,7 +2461,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>76</v>
       </c>
@@ -2481,7 +2479,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -2501,7 +2499,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -2521,7 +2519,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -2541,7 +2539,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -2561,7 +2559,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -2581,7 +2579,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -2625,7 +2623,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -2645,7 +2643,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>78</v>
@@ -2741,7 +2739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44531</v>
       </c>
@@ -2761,7 +2759,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2777,7 +2775,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>81</v>
       </c>
@@ -2795,7 +2793,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -2815,7 +2813,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -2835,7 +2833,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -2881,7 +2879,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -2907,7 +2905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>50</v>
@@ -2951,7 +2949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44743</v>
       </c>
@@ -2971,7 +2969,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44774</v>
       </c>
@@ -2991,7 +2989,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44805</v>
       </c>
@@ -3017,7 +3015,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44835</v>
       </c>
@@ -3037,7 +3035,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44866</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44896</v>
       </c>
@@ -3089,7 +3087,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>86</v>
       </c>
@@ -3107,7 +3105,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -3151,25 +3149,33 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="B85" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>1</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="49">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45017</v>
       </c>
@@ -3187,7 +3193,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45047</v>
       </c>
@@ -3205,7 +3211,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45078</v>
       </c>
@@ -3223,7 +3229,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45108</v>
       </c>
@@ -3241,7 +3247,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45139</v>
       </c>
@@ -3259,7 +3265,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45170</v>
       </c>
@@ -3277,7 +3283,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45200</v>
       </c>
@@ -3295,7 +3301,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45231</v>
       </c>
@@ -3313,7 +3319,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45261</v>
       </c>
@@ -3331,7 +3337,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45292</v>
       </c>
@@ -3349,7 +3355,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45323</v>
       </c>
@@ -3367,7 +3373,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45352</v>
       </c>
@@ -3385,7 +3391,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45383</v>
       </c>
@@ -3403,7 +3409,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45413</v>
       </c>
@@ -3421,7 +3427,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45444</v>
       </c>
@@ -3439,7 +3445,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45474</v>
       </c>
@@ -3457,7 +3463,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45505</v>
       </c>
@@ -3475,7 +3481,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45536</v>
       </c>
@@ -3493,7 +3499,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45566</v>
       </c>
@@ -3511,7 +3517,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45597</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45627</v>
       </c>
@@ -3547,7 +3553,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45658</v>
       </c>
@@ -3565,7 +3571,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45689</v>
       </c>
@@ -3583,7 +3589,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45717</v>
       </c>
@@ -3601,7 +3607,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45748</v>
       </c>
@@ -3619,7 +3625,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45778</v>
       </c>
@@ -3637,7 +3643,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45809</v>
       </c>
@@ -3655,7 +3661,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45839</v>
       </c>
@@ -3673,7 +3679,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45870</v>
       </c>
@@ -3691,7 +3697,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45901</v>
       </c>
@@ -3709,7 +3715,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45931</v>
       </c>
@@ -3727,7 +3733,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45962</v>
       </c>
@@ -3745,7 +3751,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45992</v>
       </c>
@@ -3763,7 +3769,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46023</v>
       </c>
@@ -3781,7 +3787,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46054</v>
       </c>
@@ -3799,7 +3805,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3815,7 +3821,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3831,7 +3837,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3847,7 +3853,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3863,7 +3869,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3879,7 +3885,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3895,7 +3901,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3911,7 +3917,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3927,7 +3933,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3943,7 +3949,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -3974,10 +3980,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4000,28 +4006,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4034,7 +4040,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>126.06100000000001</v>
       </c>
@@ -4087,17 +4093,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4118,7 +4124,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4327,7 +4333,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4702,7 +4708,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4816,7 +4822,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4825,7 +4831,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4834,7 +4840,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4843,7 +4849,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4852,7 +4858,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4861,7 +4867,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4870,7 +4876,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4879,7 +4885,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4888,7 +4894,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4897,7 +4903,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4906,7 +4912,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4915,7 +4921,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4924,7 +4930,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4933,7 +4939,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4942,7 +4948,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4951,7 +4957,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4960,7 +4966,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4969,7 +4975,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4978,7 +4984,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4987,7 +4993,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4996,7 +5002,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5005,7 +5011,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5014,7 +5020,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5023,7 +5029,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5032,7 +5038,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5041,7 +5047,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5050,7 +5056,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5059,7 +5065,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5068,7 +5074,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
